--- a/data/output/FV2310_FV2304/PARTIN/37002.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5096" uniqueCount="278">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5117" uniqueCount="278">
+  <si>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -977,6 +977,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U247" totalsRowShown="0">
+  <autoFilter ref="A1:U247"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2304"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="3" name="Segment_FV2304"/>
+    <tableColumn id="4" name="Datenelement_FV2304"/>
+    <tableColumn id="5" name="Segment ID_FV2304"/>
+    <tableColumn id="6" name="Code_FV2304"/>
+    <tableColumn id="7" name="Qualifier_FV2304"/>
+    <tableColumn id="8" name="Beschreibung_FV2304"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="10" name="Bedingung_FV2304"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2310"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="14" name="Segment_FV2310"/>
+    <tableColumn id="15" name="Datenelement_FV2310"/>
+    <tableColumn id="16" name="Segment ID_FV2310"/>
+    <tableColumn id="17" name="Code_FV2310"/>
+    <tableColumn id="18" name="Qualifier_FV2310"/>
+    <tableColumn id="19" name="Beschreibung_FV2310"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="21" name="Bedingung_FV2310"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,7 +1296,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12402,5 +12435,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2310_FV2304/PARTIN/37002.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5888" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5762" uniqueCount="521">
   <si>
     <t>#</t>
   </si>
@@ -9596,9 +9596,7 @@
         <v>211</v>
       </c>
       <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L156" s="4"/>
       <c r="M156" s="5" t="s">
         <v>44</v>
       </c>
@@ -9646,9 +9644,7 @@
         <v>212</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>44</v>
       </c>
@@ -9758,9 +9754,7 @@
         <v>212</v>
       </c>
       <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L159" s="4"/>
       <c r="M159" s="5" t="s">
         <v>44</v>
       </c>
@@ -9812,9 +9806,7 @@
         <v>212</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>44</v>
       </c>
@@ -9864,9 +9856,7 @@
         <v>212</v>
       </c>
       <c r="K161" s="5"/>
-      <c r="L161" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>44</v>
       </c>
@@ -9972,9 +9962,7 @@
         <v>212</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>44</v>
       </c>
@@ -9999,44 +9987,42 @@
       <c r="V163" s="5"/>
     </row>
     <row r="164" spans="1:22">
-      <c r="A164" s="5" t="s">
+      <c r="A164" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="B164" s="5" t="s">
+      <c r="B164" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C164" s="5" t="s">
+      <c r="C164" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D164" s="5"/>
-      <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
-      <c r="G164" s="5"/>
-      <c r="H164" s="5"/>
-      <c r="I164" s="5"/>
-      <c r="J164" s="5" t="s">
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K164" s="5"/>
-      <c r="L164" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M164" s="5" t="s">
+      <c r="K164" s="2"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N164" s="5" t="s">
+      <c r="N164" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O164" s="5"/>
-      <c r="P164" s="5"/>
-      <c r="Q164" s="5"/>
-      <c r="R164" s="5"/>
-      <c r="S164" s="5"/>
-      <c r="T164" s="5"/>
-      <c r="U164" s="5" t="s">
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V164" s="5"/>
+      <c r="V164" s="2"/>
     </row>
     <row r="165" spans="1:22">
       <c r="A165" s="5" t="s">
@@ -10060,9 +10046,7 @@
         <v>211</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>30</v>
       </c>
@@ -10110,9 +10094,7 @@
         <v>212</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>30</v>
       </c>
@@ -10166,9 +10148,7 @@
       <c r="K167" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L167" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L167" s="4"/>
       <c r="M167" s="5" t="s">
         <v>30</v>
       </c>
@@ -10195,48 +10175,46 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -10266,9 +10244,7 @@
       <c r="K169" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L169" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>31</v>
       </c>
@@ -10322,9 +10298,7 @@
         <v>231</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>31</v>
       </c>
@@ -10378,9 +10352,7 @@
         <v>231</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>31</v>
       </c>
@@ -10434,9 +10406,7 @@
         <v>222</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>31</v>
       </c>
@@ -10528,9 +10498,7 @@
         <v>211</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>45</v>
       </c>
@@ -10578,9 +10546,7 @@
         <v>212</v>
       </c>
       <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L175" s="4"/>
       <c r="M175" s="5" t="s">
         <v>45</v>
       </c>
@@ -10690,9 +10656,7 @@
         <v>212</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>45</v>
       </c>
@@ -10744,9 +10708,7 @@
         <v>212</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>45</v>
       </c>
@@ -10796,9 +10758,7 @@
         <v>212</v>
       </c>
       <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L179" s="4"/>
       <c r="M179" s="5" t="s">
         <v>45</v>
       </c>
@@ -10904,9 +10864,7 @@
         <v>212</v>
       </c>
       <c r="K181" s="5"/>
-      <c r="L181" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>45</v>
       </c>
@@ -10931,44 +10889,42 @@
       <c r="V181" s="5"/>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D182" s="5"/>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O182" s="5"/>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -10992,9 +10948,7 @@
         <v>211</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>30</v>
       </c>
@@ -11042,9 +10996,7 @@
         <v>212</v>
       </c>
       <c r="K184" s="5"/>
-      <c r="L184" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>30</v>
       </c>
@@ -11098,9 +11050,7 @@
       <c r="K185" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L185" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L185" s="4"/>
       <c r="M185" s="5" t="s">
         <v>30</v>
       </c>
@@ -11127,48 +11077,46 @@
       </c>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M186" s="5" t="s">
+      <c r="K186" s="2"/>
+      <c r="L186" s="4"/>
+      <c r="M186" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P186" s="5"/>
-      <c r="Q186" s="5"/>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="P186" s="2"/>
+      <c r="Q186" s="2"/>
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -11198,9 +11146,7 @@
       <c r="K187" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L187" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>31</v>
       </c>
@@ -11254,9 +11200,7 @@
         <v>231</v>
       </c>
       <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L188" s="4"/>
       <c r="M188" s="5" t="s">
         <v>31</v>
       </c>
@@ -11310,9 +11254,7 @@
         <v>231</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>31</v>
       </c>
@@ -11366,9 +11308,7 @@
         <v>222</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>31</v>
       </c>
@@ -12178,9 +12118,7 @@
         <v>211</v>
       </c>
       <c r="K210" s="5"/>
-      <c r="L210" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>46</v>
       </c>
@@ -12228,9 +12166,7 @@
         <v>212</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>46</v>
       </c>
@@ -12340,9 +12276,7 @@
         <v>212</v>
       </c>
       <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>46</v>
       </c>
@@ -12394,9 +12328,7 @@
         <v>212</v>
       </c>
       <c r="K214" s="5"/>
-      <c r="L214" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>46</v>
       </c>
@@ -12446,9 +12378,7 @@
         <v>212</v>
       </c>
       <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L215" s="4"/>
       <c r="M215" s="5" t="s">
         <v>46</v>
       </c>
@@ -12554,9 +12484,7 @@
         <v>212</v>
       </c>
       <c r="K217" s="5"/>
-      <c r="L217" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>46</v>
       </c>
@@ -12581,44 +12509,42 @@
       <c r="V217" s="5"/>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D218" s="5"/>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="K218" s="2"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O218" s="5"/>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="O218" s="2"/>
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -12642,9 +12568,7 @@
         <v>211</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>30</v>
       </c>
@@ -12692,9 +12616,7 @@
         <v>212</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>30</v>
       </c>
@@ -12748,9 +12670,7 @@
       <c r="K221" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L221" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>30</v>
       </c>
@@ -12777,48 +12697,46 @@
       </c>
     </row>
     <row r="222" spans="1:22">
-      <c r="A222" s="5" t="s">
+      <c r="A222" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C222" s="5" t="s">
+      <c r="C222" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E222" s="5"/>
-      <c r="F222" s="5"/>
-      <c r="G222" s="5"/>
-      <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="5" t="s">
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="2"/>
+      <c r="I222" s="2"/>
+      <c r="J222" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M222" s="5" t="s">
+      <c r="K222" s="2"/>
+      <c r="L222" s="4"/>
+      <c r="M222" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N222" s="5" t="s">
+      <c r="N222" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O222" s="5" t="s">
+      <c r="O222" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P222" s="5"/>
-      <c r="Q222" s="5"/>
-      <c r="R222" s="5"/>
-      <c r="S222" s="5"/>
-      <c r="T222" s="5"/>
-      <c r="U222" s="5" t="s">
+      <c r="P222" s="2"/>
+      <c r="Q222" s="2"/>
+      <c r="R222" s="2"/>
+      <c r="S222" s="2"/>
+      <c r="T222" s="2"/>
+      <c r="U222" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V222" s="5"/>
+      <c r="V222" s="2"/>
     </row>
     <row r="223" spans="1:22">
       <c r="A223" s="5" t="s">
@@ -12848,9 +12766,7 @@
       <c r="K223" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L223" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>31</v>
       </c>
@@ -12904,9 +12820,7 @@
         <v>231</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>31</v>
       </c>
@@ -12960,9 +12874,7 @@
         <v>231</v>
       </c>
       <c r="K225" s="5"/>
-      <c r="L225" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L225" s="4"/>
       <c r="M225" s="5" t="s">
         <v>31</v>
       </c>
@@ -13016,9 +12928,7 @@
         <v>222</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>31</v>
       </c>
@@ -13110,9 +13020,7 @@
         <v>211</v>
       </c>
       <c r="K228" s="5"/>
-      <c r="L228" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L228" s="4"/>
       <c r="M228" s="5" t="s">
         <v>47</v>
       </c>
@@ -13160,9 +13068,7 @@
         <v>212</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>47</v>
       </c>
@@ -13272,9 +13178,7 @@
         <v>212</v>
       </c>
       <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L231" s="4"/>
       <c r="M231" s="5" t="s">
         <v>47</v>
       </c>
@@ -13326,9 +13230,7 @@
         <v>212</v>
       </c>
       <c r="K232" s="5"/>
-      <c r="L232" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L232" s="4"/>
       <c r="M232" s="5" t="s">
         <v>47</v>
       </c>
@@ -13378,9 +13280,7 @@
         <v>212</v>
       </c>
       <c r="K233" s="5"/>
-      <c r="L233" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>47</v>
       </c>
@@ -13486,9 +13386,7 @@
         <v>212</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>47</v>
       </c>
@@ -13513,44 +13411,42 @@
       <c r="V235" s="5"/>
     </row>
     <row r="236" spans="1:22">
-      <c r="A236" s="5" t="s">
+      <c r="A236" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="B236" s="5" t="s">
+      <c r="B236" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C236" s="5" t="s">
+      <c r="C236" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D236" s="5"/>
-      <c r="E236" s="5"/>
-      <c r="F236" s="5"/>
-      <c r="G236" s="5"/>
-      <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="5" t="s">
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K236" s="5"/>
-      <c r="L236" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M236" s="5" t="s">
+      <c r="K236" s="2"/>
+      <c r="L236" s="4"/>
+      <c r="M236" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N236" s="5" t="s">
+      <c r="N236" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O236" s="5"/>
-      <c r="P236" s="5"/>
-      <c r="Q236" s="5"/>
-      <c r="R236" s="5"/>
-      <c r="S236" s="5"/>
-      <c r="T236" s="5"/>
-      <c r="U236" s="5" t="s">
+      <c r="O236" s="2"/>
+      <c r="P236" s="2"/>
+      <c r="Q236" s="2"/>
+      <c r="R236" s="2"/>
+      <c r="S236" s="2"/>
+      <c r="T236" s="2"/>
+      <c r="U236" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V236" s="5"/>
+      <c r="V236" s="2"/>
     </row>
     <row r="237" spans="1:22">
       <c r="A237" s="5" t="s">
@@ -13574,9 +13470,7 @@
         <v>211</v>
       </c>
       <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L237" s="4"/>
       <c r="M237" s="5" t="s">
         <v>30</v>
       </c>
@@ -13624,9 +13518,7 @@
         <v>212</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>30</v>
       </c>
@@ -13680,9 +13572,7 @@
       <c r="K239" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="L239" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>30</v>
       </c>
@@ -13709,48 +13599,46 @@
       </c>
     </row>
     <row r="240" spans="1:22">
-      <c r="A240" s="5" t="s">
+      <c r="A240" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B240" s="5" t="s">
+      <c r="B240" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C240" s="5" t="s">
+      <c r="C240" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E240" s="5"/>
-      <c r="F240" s="5"/>
-      <c r="G240" s="5"/>
-      <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="5" t="s">
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
+      <c r="H240" s="2"/>
+      <c r="I240" s="2"/>
+      <c r="J240" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K240" s="5"/>
-      <c r="L240" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M240" s="5" t="s">
+      <c r="K240" s="2"/>
+      <c r="L240" s="4"/>
+      <c r="M240" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N240" s="5" t="s">
+      <c r="N240" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="O240" s="5" t="s">
+      <c r="O240" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P240" s="5"/>
-      <c r="Q240" s="5"/>
-      <c r="R240" s="5"/>
-      <c r="S240" s="5"/>
-      <c r="T240" s="5"/>
-      <c r="U240" s="5" t="s">
+      <c r="P240" s="2"/>
+      <c r="Q240" s="2"/>
+      <c r="R240" s="2"/>
+      <c r="S240" s="2"/>
+      <c r="T240" s="2"/>
+      <c r="U240" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V240" s="5"/>
+      <c r="V240" s="2"/>
     </row>
     <row r="241" spans="1:22">
       <c r="A241" s="5" t="s">
@@ -13780,9 +13668,7 @@
       <c r="K241" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="L241" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>31</v>
       </c>
@@ -13836,9 +13722,7 @@
         <v>231</v>
       </c>
       <c r="K242" s="5"/>
-      <c r="L242" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L242" s="4"/>
       <c r="M242" s="5" t="s">
         <v>31</v>
       </c>
@@ -13892,9 +13776,7 @@
         <v>231</v>
       </c>
       <c r="K243" s="5"/>
-      <c r="L243" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L243" s="4"/>
       <c r="M243" s="5" t="s">
         <v>31</v>
       </c>
@@ -13948,9 +13830,7 @@
         <v>222</v>
       </c>
       <c r="K244" s="5"/>
-      <c r="L244" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L244" s="4"/>
       <c r="M244" s="5" t="s">
         <v>31</v>
       </c>
@@ -13977,44 +13857,42 @@
       <c r="V244" s="5"/>
     </row>
     <row r="245" spans="1:22">
-      <c r="A245" s="5" t="s">
+      <c r="A245" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="B245" s="5" t="s">
+      <c r="B245" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5" t="s">
+      <c r="C245" s="2"/>
+      <c r="D245" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E245" s="5"/>
-      <c r="F245" s="5"/>
-      <c r="G245" s="5"/>
-      <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="5" t="s">
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
+      <c r="H245" s="2"/>
+      <c r="I245" s="2"/>
+      <c r="J245" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K245" s="5"/>
-      <c r="L245" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="M245" s="5" t="s">
+      <c r="K245" s="2"/>
+      <c r="L245" s="4"/>
+      <c r="M245" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N245" s="5"/>
-      <c r="O245" s="5" t="s">
+      <c r="N245" s="2"/>
+      <c r="O245" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P245" s="5"/>
-      <c r="Q245" s="5"/>
-      <c r="R245" s="5"/>
-      <c r="S245" s="5"/>
-      <c r="T245" s="5"/>
-      <c r="U245" s="5" t="s">
+      <c r="P245" s="2"/>
+      <c r="Q245" s="2"/>
+      <c r="R245" s="2"/>
+      <c r="S245" s="2"/>
+      <c r="T245" s="2"/>
+      <c r="U245" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="V245" s="5"/>
+      <c r="V245" s="2"/>
     </row>
     <row r="246" spans="1:22">
       <c r="A246" s="5" t="s">
@@ -14040,9 +13918,7 @@
         <v>212</v>
       </c>
       <c r="K246" s="5"/>
-      <c r="L246" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L246" s="4"/>
       <c r="M246" s="5" t="s">
         <v>48</v>
       </c>
@@ -14088,9 +13964,7 @@
         <v>212</v>
       </c>
       <c r="K247" s="5"/>
-      <c r="L247" s="7" t="s">
-        <v>253</v>
-      </c>
+      <c r="L247" s="4"/>
       <c r="M247" s="5" t="s">
         <v>48</v>
       </c>

--- a/data/output/FV2310_FV2304/PARTIN/37002.xlsx
+++ b/data/output/FV2310_FV2304/PARTIN/37002.xlsx
@@ -1696,7 +1696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1721,6 +1721,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2161,7 +2164,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2497,7 +2500,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2685,7 +2688,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -2873,7 +2876,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3061,7 +3064,7 @@
       </c>
       <c r="K21" s="2"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N21" s="2" t="s">
@@ -3253,7 +3256,7 @@
         <v>239</v>
       </c>
       <c r="L25" s="4"/>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N25" s="2" t="s">
@@ -3455,7 +3458,7 @@
         <v>239</v>
       </c>
       <c r="L29" s="4"/>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N29" s="2" t="s">
@@ -3645,7 +3648,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3941,7 +3944,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4127,7 +4130,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4491,7 +4494,7 @@
       </c>
       <c r="K50" s="2"/>
       <c r="L50" s="4"/>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N50" s="2" t="s">
@@ -4787,7 +4790,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2"/>
@@ -4877,7 +4880,7 @@
         <v>243</v>
       </c>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5341,7 +5344,7 @@
       </c>
       <c r="K67" s="2"/>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5687,7 +5690,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5811,24 +5814,24 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>226</v>
       </c>
       <c r="K77" s="6" t="s">
@@ -5837,21 +5840,21 @@
       <c r="L77" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N77" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O77" s="5" t="s">
+      <c r="N77" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O77" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>226</v>
       </c>
       <c r="V77" s="6" t="s">
@@ -6035,7 +6038,7 @@
         <v>246</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6277,7 +6280,7 @@
       </c>
       <c r="K86" s="2"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N86" s="2" t="s">
@@ -6425,7 +6428,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6561,7 +6564,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7035,7 +7038,7 @@
         <v>243</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7487,7 +7490,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -7677,7 +7680,7 @@
       </c>
       <c r="K114" s="2"/>
       <c r="L114" s="4"/>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N114" s="2" t="s">
@@ -7913,21 +7916,21 @@
       <c r="V118" s="5"/>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C119" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D119" s="5"/>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="C119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
       <c r="J119" s="6" t="s">
         <v>223</v>
       </c>
@@ -7937,18 +7940,18 @@
       <c r="L119" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M119" s="5" t="s">
+      <c r="M119" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N119" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O119" s="5"/>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
+      <c r="N119" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
       <c r="U119" s="6" t="s">
         <v>264</v>
       </c>
@@ -8387,7 +8390,7 @@
       </c>
       <c r="K128" s="2"/>
       <c r="L128" s="4"/>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N128" s="2" t="s">
@@ -8577,7 +8580,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8832,19 +8835,19 @@
       <c r="M137" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="N137" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O137" s="9"/>
-      <c r="P137" s="9"/>
-      <c r="Q137" s="9"/>
-      <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="T137" s="9"/>
-      <c r="U137" s="9" t="s">
+      <c r="N137" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="V137" s="9" t="s">
+      <c r="V137" s="10" t="s">
         <v>275</v>
       </c>
     </row>
@@ -8865,24 +8868,24 @@
       <c r="L138" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M138" s="9" t="s">
+      <c r="M138" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N138" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O138" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P138" s="9"/>
-      <c r="Q138" s="9"/>
-      <c r="R138" s="9"/>
-      <c r="S138" s="9"/>
-      <c r="T138" s="9"/>
-      <c r="U138" s="9" t="s">
+      <c r="N138" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O138" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V138" s="9"/>
+      <c r="V138" s="10"/>
     </row>
     <row r="139" spans="1:22">
       <c r="A139" s="5" t="s">
@@ -8901,30 +8904,30 @@
       <c r="L139" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M139" s="9" t="s">
+      <c r="M139" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N139" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O139" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P139" s="9" t="s">
+      <c r="N139" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O139" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P139" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q139" s="9"/>
-      <c r="R139" s="9" t="s">
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="S139" s="9"/>
-      <c r="T139" s="9" t="s">
+      <c r="S139" s="10"/>
+      <c r="T139" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="U139" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V139" s="9"/>
+      <c r="U139" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V139" s="10"/>
     </row>
     <row r="140" spans="1:22">
       <c r="A140" s="5" t="s">
@@ -8943,28 +8946,28 @@
       <c r="L140" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M140" s="9" t="s">
+      <c r="M140" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N140" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O140" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P140" s="9" t="s">
+      <c r="N140" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O140" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P140" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q140" s="9"/>
-      <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="T140" s="9" t="s">
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="U140" s="9" t="s">
+      <c r="U140" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="V140" s="9" t="s">
+      <c r="V140" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8985,30 +8988,30 @@
       <c r="L141" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M141" s="9" t="s">
+      <c r="M141" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N141" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O141" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P141" s="9" t="s">
+      <c r="N141" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O141" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P141" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q141" s="9"/>
-      <c r="R141" s="9" t="s">
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S141" s="9"/>
-      <c r="T141" s="9" t="s">
+      <c r="S141" s="10"/>
+      <c r="T141" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="U141" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V141" s="9"/>
+      <c r="U141" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V141" s="10"/>
     </row>
     <row r="142" spans="1:22">
       <c r="A142" s="5" t="s">
@@ -9027,28 +9030,28 @@
       <c r="L142" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M142" s="9" t="s">
+      <c r="M142" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N142" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O142" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P142" s="9" t="s">
+      <c r="N142" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O142" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P142" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q142" s="9"/>
-      <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="T142" s="9" t="s">
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="U142" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V142" s="9"/>
+      <c r="U142" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V142" s="10"/>
     </row>
     <row r="143" spans="1:22">
       <c r="A143" s="5" t="s">
@@ -9067,28 +9070,28 @@
       <c r="L143" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M143" s="9" t="s">
+      <c r="M143" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N143" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O143" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P143" s="9" t="s">
+      <c r="N143" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O143" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P143" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q143" s="9"/>
-      <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="T143" s="9" t="s">
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="U143" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V143" s="9"/>
+      <c r="U143" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V143" s="10"/>
     </row>
     <row r="144" spans="1:22">
       <c r="A144" s="5" t="s">
@@ -9107,28 +9110,28 @@
       <c r="L144" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M144" s="9" t="s">
+      <c r="M144" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N144" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O144" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P144" s="9" t="s">
+      <c r="N144" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O144" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P144" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q144" s="9"/>
-      <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-      <c r="T144" s="9" t="s">
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
+      <c r="S144" s="10"/>
+      <c r="T144" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="U144" s="9" t="s">
+      <c r="U144" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="V144" s="9" t="s">
+      <c r="V144" s="10" t="s">
         <v>252</v>
       </c>
     </row>
@@ -9149,28 +9152,28 @@
       <c r="L145" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M145" s="9" t="s">
+      <c r="M145" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="N145" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O145" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P145" s="9" t="s">
+      <c r="N145" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O145" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P145" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q145" s="9"/>
-      <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="T145" s="9" t="s">
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
+      <c r="T145" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U145" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V145" s="9"/>
+      <c r="U145" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V145" s="10"/>
     </row>
     <row r="146" spans="1:22">
       <c r="A146" s="5" t="s">
@@ -9192,19 +9195,19 @@
       <c r="M146" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N146" s="9" t="s">
+      <c r="N146" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O146" s="9"/>
-      <c r="P146" s="9"/>
-      <c r="Q146" s="9"/>
-      <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="T146" s="9"/>
-      <c r="U146" s="9" t="s">
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
+      <c r="T146" s="10"/>
+      <c r="U146" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V146" s="9"/>
+      <c r="V146" s="10"/>
     </row>
     <row r="147" spans="1:22">
       <c r="A147" s="5" t="s">
@@ -9223,24 +9226,24 @@
       <c r="L147" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M147" s="9" t="s">
+      <c r="M147" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N147" s="9" t="s">
+      <c r="N147" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O147" s="9" t="s">
+      <c r="O147" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P147" s="9"/>
-      <c r="Q147" s="9"/>
-      <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
-      <c r="T147" s="9"/>
-      <c r="U147" s="9" t="s">
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V147" s="9"/>
+      <c r="V147" s="10"/>
     </row>
     <row r="148" spans="1:22">
       <c r="A148" s="5" t="s">
@@ -9259,30 +9262,30 @@
       <c r="L148" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M148" s="9" t="s">
+      <c r="M148" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N148" s="9" t="s">
+      <c r="N148" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O148" s="9" t="s">
+      <c r="O148" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P148" s="9" t="s">
+      <c r="P148" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q148" s="9"/>
-      <c r="R148" s="9" t="s">
+      <c r="Q148" s="10"/>
+      <c r="R148" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="S148" s="9"/>
-      <c r="T148" s="9" t="s">
+      <c r="S148" s="10"/>
+      <c r="T148" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="U148" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V148" s="9"/>
+      <c r="U148" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V148" s="10"/>
     </row>
     <row r="149" spans="1:22">
       <c r="A149" s="5" t="s">
@@ -9301,28 +9304,28 @@
       <c r="L149" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M149" s="9" t="s">
+      <c r="M149" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N149" s="9" t="s">
+      <c r="N149" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O149" s="9" t="s">
+      <c r="O149" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P149" s="9" t="s">
+      <c r="P149" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q149" s="9"/>
-      <c r="R149" s="9"/>
-      <c r="S149" s="9"/>
-      <c r="T149" s="9" t="s">
+      <c r="Q149" s="10"/>
+      <c r="R149" s="10"/>
+      <c r="S149" s="10"/>
+      <c r="T149" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="U149" s="9" t="s">
+      <c r="U149" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="V149" s="9" t="s">
+      <c r="V149" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -9346,21 +9349,21 @@
       <c r="M150" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N150" s="9" t="s">
+      <c r="N150" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O150" s="9" t="s">
+      <c r="O150" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P150" s="9"/>
-      <c r="Q150" s="9"/>
-      <c r="R150" s="9"/>
-      <c r="S150" s="9"/>
-      <c r="T150" s="9"/>
-      <c r="U150" s="9" t="s">
+      <c r="P150" s="10"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10"/>
+      <c r="S150" s="10"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V150" s="9"/>
+      <c r="V150" s="10"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -9379,28 +9382,28 @@
       <c r="L151" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M151" s="9" t="s">
+      <c r="M151" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N151" s="9" t="s">
+      <c r="N151" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O151" s="9" t="s">
+      <c r="O151" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P151" s="9" t="s">
+      <c r="P151" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q151" s="9"/>
-      <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="T151" s="9" t="s">
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="U151" s="9" t="s">
+      <c r="U151" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="V151" s="9" t="s">
+      <c r="V151" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9421,30 +9424,30 @@
       <c r="L152" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M152" s="9" t="s">
+      <c r="M152" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N152" s="9" t="s">
+      <c r="N152" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O152" s="9" t="s">
+      <c r="O152" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P152" s="9" t="s">
+      <c r="P152" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q152" s="9"/>
-      <c r="R152" s="9" t="s">
+      <c r="Q152" s="10"/>
+      <c r="R152" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="S152" s="9"/>
-      <c r="T152" s="9" t="s">
+      <c r="S152" s="10"/>
+      <c r="T152" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="U152" s="9" t="s">
+      <c r="U152" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="V152" s="9"/>
+      <c r="V152" s="10"/>
     </row>
     <row r="153" spans="1:22">
       <c r="A153" s="5" t="s">
@@ -9463,30 +9466,30 @@
       <c r="L153" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M153" s="9" t="s">
+      <c r="M153" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N153" s="9" t="s">
+      <c r="N153" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O153" s="9" t="s">
+      <c r="O153" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P153" s="9" t="s">
+      <c r="P153" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q153" s="9"/>
-      <c r="R153" s="9" t="s">
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S153" s="9"/>
-      <c r="T153" s="9" t="s">
+      <c r="S153" s="10"/>
+      <c r="T153" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="U153" s="9" t="s">
+      <c r="U153" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="V153" s="9"/>
+      <c r="V153" s="10"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -9505,47 +9508,47 @@
       <c r="L154" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M154" s="9" t="s">
+      <c r="M154" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N154" s="9" t="s">
+      <c r="N154" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O154" s="9" t="s">
+      <c r="O154" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P154" s="9" t="s">
+      <c r="P154" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q154" s="9"/>
-      <c r="R154" s="9" t="s">
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S154" s="9"/>
-      <c r="T154" s="9" t="s">
+      <c r="S154" s="10"/>
+      <c r="T154" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="U154" s="9" t="s">
+      <c r="U154" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V154" s="9"/>
+      <c r="V154" s="10"/>
     </row>
     <row r="155" spans="1:22">
-      <c r="A155" s="5" t="s">
+      <c r="A155" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="B155" s="5" t="s">
+      <c r="B155" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
-      <c r="F155" s="5"/>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
+      <c r="C155" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="2"/>
       <c r="J155" s="6" t="s">
         <v>223</v>
       </c>
@@ -9555,18 +9558,18 @@
       <c r="L155" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M155" s="5" t="s">
+      <c r="M155" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="N155" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O155" s="5"/>
-      <c r="P155" s="5"/>
-      <c r="Q155" s="5"/>
-      <c r="R155" s="5"/>
-      <c r="S155" s="5"/>
-      <c r="T155" s="5"/>
+      <c r="N155" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O155" s="2"/>
+      <c r="P155" s="2"/>
+      <c r="Q155" s="2"/>
+      <c r="R155" s="2"/>
+      <c r="S155" s="2"/>
+      <c r="T155" s="2"/>
       <c r="U155" s="6" t="s">
         <v>266</v>
       </c>
@@ -10007,7 +10010,7 @@
       </c>
       <c r="K164" s="2"/>
       <c r="L164" s="4"/>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N164" s="2" t="s">
@@ -10197,7 +10200,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -10433,21 +10436,21 @@
       <c r="V172" s="5"/>
     </row>
     <row r="173" spans="1:22">
-      <c r="A173" s="5" t="s">
+      <c r="A173" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="B173" s="5" t="s">
+      <c r="B173" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D173" s="5"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
-      <c r="G173" s="5"/>
-      <c r="H173" s="5"/>
-      <c r="I173" s="5"/>
+      <c r="C173" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
       <c r="J173" s="6" t="s">
         <v>223</v>
       </c>
@@ -10457,18 +10460,18 @@
       <c r="L173" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M173" s="5" t="s">
+      <c r="M173" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N173" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O173" s="5"/>
-      <c r="P173" s="5"/>
-      <c r="Q173" s="5"/>
-      <c r="R173" s="5"/>
-      <c r="S173" s="5"/>
-      <c r="T173" s="5"/>
+      <c r="N173" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
       <c r="U173" s="6" t="s">
         <v>267</v>
       </c>
@@ -10909,7 +10912,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11099,7 +11102,7 @@
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="4"/>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N186" s="2" t="s">
@@ -11354,19 +11357,19 @@
       <c r="M191" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="N191" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O191" s="9"/>
-      <c r="P191" s="9"/>
-      <c r="Q191" s="9"/>
-      <c r="R191" s="9"/>
-      <c r="S191" s="9"/>
-      <c r="T191" s="9"/>
-      <c r="U191" s="9" t="s">
+      <c r="N191" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="V191" s="9" t="s">
+      <c r="V191" s="10" t="s">
         <v>278</v>
       </c>
     </row>
@@ -11387,24 +11390,24 @@
       <c r="L192" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M192" s="9" t="s">
+      <c r="M192" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N192" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O192" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P192" s="9"/>
-      <c r="Q192" s="9"/>
-      <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
-      <c r="T192" s="9"/>
-      <c r="U192" s="9" t="s">
+      <c r="N192" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O192" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V192" s="9"/>
+      <c r="V192" s="10"/>
     </row>
     <row r="193" spans="1:22">
       <c r="A193" s="5" t="s">
@@ -11423,30 +11426,30 @@
       <c r="L193" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M193" s="9" t="s">
+      <c r="M193" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N193" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O193" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P193" s="9" t="s">
+      <c r="N193" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O193" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P193" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="Q193" s="9"/>
-      <c r="R193" s="9" t="s">
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="S193" s="9"/>
-      <c r="T193" s="9" t="s">
+      <c r="S193" s="10"/>
+      <c r="T193" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="U193" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V193" s="9"/>
+      <c r="U193" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V193" s="10"/>
     </row>
     <row r="194" spans="1:22">
       <c r="A194" s="5" t="s">
@@ -11465,28 +11468,28 @@
       <c r="L194" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M194" s="9" t="s">
+      <c r="M194" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N194" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O194" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P194" s="9" t="s">
+      <c r="N194" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O194" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P194" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="Q194" s="9"/>
-      <c r="R194" s="9"/>
-      <c r="S194" s="9"/>
-      <c r="T194" s="9" t="s">
+      <c r="Q194" s="10"/>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="U194" s="9" t="s">
+      <c r="U194" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="V194" s="9" t="s">
+      <c r="V194" s="10" t="s">
         <v>273</v>
       </c>
     </row>
@@ -11507,30 +11510,30 @@
       <c r="L195" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M195" s="9" t="s">
+      <c r="M195" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N195" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O195" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P195" s="9" t="s">
+      <c r="N195" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O195" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P195" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="Q195" s="9"/>
-      <c r="R195" s="9" t="s">
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="S195" s="9"/>
-      <c r="T195" s="9" t="s">
+      <c r="S195" s="10"/>
+      <c r="T195" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="U195" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V195" s="9"/>
+      <c r="U195" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V195" s="10"/>
     </row>
     <row r="196" spans="1:22">
       <c r="A196" s="5" t="s">
@@ -11549,28 +11552,28 @@
       <c r="L196" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M196" s="9" t="s">
+      <c r="M196" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N196" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O196" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P196" s="9" t="s">
+      <c r="N196" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O196" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P196" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="Q196" s="9"/>
-      <c r="R196" s="9"/>
-      <c r="S196" s="9"/>
-      <c r="T196" s="9" t="s">
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="U196" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V196" s="9"/>
+      <c r="U196" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V196" s="10"/>
     </row>
     <row r="197" spans="1:22">
       <c r="A197" s="5" t="s">
@@ -11589,28 +11592,28 @@
       <c r="L197" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M197" s="9" t="s">
+      <c r="M197" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N197" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O197" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P197" s="9" t="s">
+      <c r="N197" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O197" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P197" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="Q197" s="9"/>
-      <c r="R197" s="9"/>
-      <c r="S197" s="9"/>
-      <c r="T197" s="9" t="s">
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="U197" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V197" s="9"/>
+      <c r="U197" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V197" s="10"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -11629,28 +11632,28 @@
       <c r="L198" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M198" s="9" t="s">
+      <c r="M198" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N198" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O198" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P198" s="9" t="s">
+      <c r="N198" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O198" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P198" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="Q198" s="9"/>
-      <c r="R198" s="9"/>
-      <c r="S198" s="9"/>
-      <c r="T198" s="9" t="s">
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="U198" s="9" t="s">
+      <c r="U198" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="V198" s="9" t="s">
+      <c r="V198" s="10" t="s">
         <v>252</v>
       </c>
     </row>
@@ -11671,28 +11674,28 @@
       <c r="L199" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M199" s="9" t="s">
+      <c r="M199" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="N199" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O199" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P199" s="9" t="s">
+      <c r="N199" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O199" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P199" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="Q199" s="9"/>
-      <c r="R199" s="9"/>
-      <c r="S199" s="9"/>
-      <c r="T199" s="9" t="s">
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="U199" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V199" s="9"/>
+      <c r="U199" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V199" s="10"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -11714,19 +11717,19 @@
       <c r="M200" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="N200" s="9" t="s">
+      <c r="N200" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O200" s="9"/>
-      <c r="P200" s="9"/>
-      <c r="Q200" s="9"/>
-      <c r="R200" s="9"/>
-      <c r="S200" s="9"/>
-      <c r="T200" s="9"/>
-      <c r="U200" s="9" t="s">
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V200" s="9"/>
+      <c r="V200" s="10"/>
     </row>
     <row r="201" spans="1:22">
       <c r="A201" s="5" t="s">
@@ -11745,24 +11748,24 @@
       <c r="L201" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M201" s="9" t="s">
+      <c r="M201" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N201" s="9" t="s">
+      <c r="N201" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O201" s="9" t="s">
+      <c r="O201" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P201" s="9"/>
-      <c r="Q201" s="9"/>
-      <c r="R201" s="9"/>
-      <c r="S201" s="9"/>
-      <c r="T201" s="9"/>
-      <c r="U201" s="9" t="s">
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="10"/>
+      <c r="T201" s="10"/>
+      <c r="U201" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V201" s="9"/>
+      <c r="V201" s="10"/>
     </row>
     <row r="202" spans="1:22">
       <c r="A202" s="5" t="s">
@@ -11781,30 +11784,30 @@
       <c r="L202" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M202" s="9" t="s">
+      <c r="M202" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N202" s="9" t="s">
+      <c r="N202" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O202" s="9" t="s">
+      <c r="O202" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P202" s="9" t="s">
+      <c r="P202" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="Q202" s="9"/>
-      <c r="R202" s="9" t="s">
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="S202" s="9"/>
-      <c r="T202" s="9" t="s">
+      <c r="S202" s="10"/>
+      <c r="T202" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="U202" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="V202" s="9"/>
+      <c r="U202" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="V202" s="10"/>
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="5" t="s">
@@ -11823,28 +11826,28 @@
       <c r="L203" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M203" s="9" t="s">
+      <c r="M203" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="N203" s="9" t="s">
+      <c r="N203" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O203" s="9" t="s">
+      <c r="O203" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="P203" s="9" t="s">
+      <c r="P203" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="Q203" s="9"/>
-      <c r="R203" s="9"/>
-      <c r="S203" s="9"/>
-      <c r="T203" s="9" t="s">
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="U203" s="9" t="s">
+      <c r="U203" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="V203" s="9" t="s">
+      <c r="V203" s="10" t="s">
         <v>250</v>
       </c>
     </row>
@@ -11868,21 +11871,21 @@
       <c r="M204" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="N204" s="9" t="s">
+      <c r="N204" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O204" s="9" t="s">
+      <c r="O204" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P204" s="9"/>
-      <c r="Q204" s="9"/>
-      <c r="R204" s="9"/>
-      <c r="S204" s="9"/>
-      <c r="T204" s="9"/>
-      <c r="U204" s="9" t="s">
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="10"/>
+      <c r="T204" s="10"/>
+      <c r="U204" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="V204" s="9"/>
+      <c r="V204" s="10"/>
     </row>
     <row r="205" spans="1:22">
       <c r="A205" s="5" t="s">
@@ -11901,28 +11904,28 @@
       <c r="L205" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M205" s="9" t="s">
+      <c r="M205" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N205" s="9" t="s">
+      <c r="N205" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O205" s="9" t="s">
+      <c r="O205" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P205" s="9" t="s">
+      <c r="P205" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="Q205" s="9"/>
-      <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
-      <c r="T205" s="9" t="s">
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="U205" s="9" t="s">
+      <c r="U205" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="V205" s="9" t="s">
+      <c r="V205" s="10" t="s">
         <v>251</v>
       </c>
     </row>
@@ -11943,30 +11946,30 @@
       <c r="L206" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M206" s="9" t="s">
+      <c r="M206" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N206" s="9" t="s">
+      <c r="N206" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O206" s="9" t="s">
+      <c r="O206" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P206" s="9" t="s">
+      <c r="P206" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q206" s="9"/>
-      <c r="R206" s="9" t="s">
+      <c r="Q206" s="10"/>
+      <c r="R206" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="S206" s="9"/>
-      <c r="T206" s="9" t="s">
+      <c r="S206" s="10"/>
+      <c r="T206" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="U206" s="9" t="s">
+      <c r="U206" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="V206" s="9"/>
+      <c r="V206" s="10"/>
     </row>
     <row r="207" spans="1:22">
       <c r="A207" s="5" t="s">
@@ -11985,30 +11988,30 @@
       <c r="L207" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M207" s="9" t="s">
+      <c r="M207" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N207" s="9" t="s">
+      <c r="N207" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O207" s="9" t="s">
+      <c r="O207" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P207" s="9" t="s">
+      <c r="P207" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q207" s="9"/>
-      <c r="R207" s="9" t="s">
+      <c r="Q207" s="10"/>
+      <c r="R207" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="S207" s="9"/>
-      <c r="T207" s="9" t="s">
+      <c r="S207" s="10"/>
+      <c r="T207" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="U207" s="9" t="s">
+      <c r="U207" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="V207" s="9"/>
+      <c r="V207" s="10"/>
     </row>
     <row r="208" spans="1:22">
       <c r="A208" s="5" t="s">
@@ -12027,47 +12030,47 @@
       <c r="L208" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="M208" s="9" t="s">
+      <c r="M208" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N208" s="9" t="s">
+      <c r="N208" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O208" s="9" t="s">
+      <c r="O208" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="P208" s="9" t="s">
+      <c r="P208" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="Q208" s="9"/>
-      <c r="R208" s="9" t="s">
+      <c r="Q208" s="10"/>
+      <c r="R208" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="S208" s="9"/>
-      <c r="T208" s="9" t="s">
+      <c r="S208" s="10"/>
+      <c r="T208" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="U208" s="9" t="s">
+      <c r="U208" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="V208" s="9"/>
+      <c r="V208" s="10"/>
     </row>
     <row r="209" spans="1:22">
-      <c r="A209" s="5" t="s">
+      <c r="A209" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B209" s="5" t="s">
+      <c r="B209" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C209" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D209" s="5"/>
-      <c r="E209" s="5"/>
-      <c r="F209" s="5"/>
-      <c r="G209" s="5"/>
-      <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
+      <c r="C209" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="2"/>
+      <c r="I209" s="2"/>
       <c r="J209" s="6" t="s">
         <v>223</v>
       </c>
@@ -12077,18 +12080,18 @@
       <c r="L209" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M209" s="5" t="s">
+      <c r="M209" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N209" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O209" s="5"/>
-      <c r="P209" s="5"/>
-      <c r="Q209" s="5"/>
-      <c r="R209" s="5"/>
-      <c r="S209" s="5"/>
-      <c r="T209" s="5"/>
+      <c r="N209" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O209" s="2"/>
+      <c r="P209" s="2"/>
+      <c r="Q209" s="2"/>
+      <c r="R209" s="2"/>
+      <c r="S209" s="2"/>
+      <c r="T209" s="2"/>
       <c r="U209" s="6" t="s">
         <v>269</v>
       </c>
@@ -12529,7 +12532,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -12719,7 +12722,7 @@
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="4"/>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N222" s="2" t="s">
@@ -12955,22 +12958,22 @@
       <c r="V226" s="5"/>
     </row>
     <row r="227" spans="1:22">
-      <c r="A227" s="5" t="s">
+      <c r="A227" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B227" s="5" t="s">
+      <c r="B227" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C227" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="5"/>
-      <c r="F227" s="5"/>
-      <c r="G227" s="5"/>
-      <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="5" t="s">
+      <c r="C227" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="2"/>
+      <c r="I227" s="2"/>
+      <c r="J227" s="2" t="s">
         <v>223</v>
       </c>
       <c r="K227" s="6" t="s">
@@ -12979,19 +12982,19 @@
       <c r="L227" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="M227" s="5" t="s">
+      <c r="M227" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N227" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O227" s="5"/>
-      <c r="P227" s="5"/>
-      <c r="Q227" s="5"/>
-      <c r="R227" s="5"/>
-      <c r="S227" s="5"/>
-      <c r="T227" s="5"/>
-      <c r="U227" s="5" t="s">
+      <c r="N227" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O227" s="2"/>
+      <c r="P227" s="2"/>
+      <c r="Q227" s="2"/>
+      <c r="R227" s="2"/>
+      <c r="S227" s="2"/>
+      <c r="T227" s="2"/>
+      <c r="U227" s="2" t="s">
         <v>223</v>
       </c>
       <c r="V227" s="6" t="s">
@@ -13431,7 +13434,7 @@
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="4"/>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N236" s="2" t="s">
@@ -13621,7 +13624,7 @@
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="4"/>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N240" s="2" t="s">
@@ -13877,7 +13880,7 @@
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="4"/>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N245" s="2"/>
